--- a/github--22本科网工考勤--云计算与微服务.xlsx
+++ b/github--22本科网工考勤--云计算与微服务.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
   <si>
     <t>4-11 5-6节 509</t>
   </si>
@@ -599,7 +599,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A7" sqref="A7"/>
+      <selection pane="topRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1252,6 +1252,9 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
+      <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
@@ -1633,6 +1636,9 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
+      <c r="K30" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
@@ -1666,6 +1672,9 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="K31" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
@@ -1699,6 +1708,9 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
+      <c r="K32" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
@@ -1732,6 +1744,9 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
+      <c r="K33" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
@@ -1798,6 +1813,9 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
+      <c r="K35" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
@@ -1863,6 +1881,9 @@
       <c r="J37" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">

--- a/github--22本科网工考勤--云计算与微服务.xlsx
+++ b/github--22本科网工考勤--云计算与微服务.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="60">
   <si>
     <t>4-11 5-6节 509</t>
   </si>
@@ -597,9 +597,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K19" sqref="K19"/>
+      <selection pane="topRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -748,6 +748,9 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -781,6 +784,9 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -814,6 +820,9 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
+      <c r="K6" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -847,6 +856,9 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -880,6 +892,9 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
+      <c r="K8" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -949,6 +964,9 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -982,6 +1000,9 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -1015,6 +1036,9 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
@@ -1048,6 +1072,9 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -1081,6 +1108,9 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
+      <c r="K14" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
@@ -1114,6 +1144,9 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
+      <c r="K15" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -1219,6 +1252,9 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
+      <c r="K18" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
@@ -1396,6 +1432,9 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
@@ -1537,6 +1576,9 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
+      <c r="K27" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
@@ -1603,6 +1645,9 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
+      <c r="K29" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
@@ -1849,6 +1894,9 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
+      <c r="K36" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
@@ -1918,6 +1966,9 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
+      <c r="K38" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
@@ -2023,6 +2074,9 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
+      <c r="K41" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
@@ -2089,6 +2143,9 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
+      <c r="K43" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
@@ -2190,6 +2247,9 @@
       <c r="J46" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">

--- a/github--22本科网工考勤--云计算与微服务.xlsx
+++ b/github--22本科网工考勤--云计算与微服务.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
   <si>
     <t>4-11 5-6节 509</t>
   </si>
@@ -217,6 +217,18 @@
   <si>
     <t>卜*涵</t>
   </si>
+  <si>
+    <t>弄虚作假，全0分，属于学业造假，情节特别严重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -225,7 +237,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +265,14 @@
       <color rgb="FF006100"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -300,7 +320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -311,6 +331,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -595,11 +618,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -612,7 +635,7 @@
     <col min="11" max="11" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -646,8 +669,11 @@
       <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -679,8 +705,12 @@
         <f>SUM(B2,C2,D2,E2,F2,G2,H2,I2)</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <f>MIN(100, ROUND(J2*1.05, 0))</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -715,8 +745,12 @@
       <c r="K3" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <f t="shared" ref="L3:L49" si="1">MIN(100, ROUND(J3*1.05, 0))</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -751,8 +785,12 @@
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -787,8 +825,12 @@
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -823,8 +865,12 @@
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -859,8 +905,12 @@
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -895,8 +945,12 @@
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -931,8 +985,12 @@
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -967,8 +1025,12 @@
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1003,8 +1065,12 @@
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1039,8 +1105,12 @@
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1075,8 +1145,12 @@
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1111,8 +1185,12 @@
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -1147,8 +1225,12 @@
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1183,8 +1265,12 @@
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -1219,8 +1305,12 @@
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1255,8 +1345,12 @@
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -1291,8 +1385,12 @@
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -1327,8 +1425,12 @@
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
@@ -1363,8 +1465,12 @@
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1399,8 +1505,12 @@
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
@@ -1435,8 +1545,12 @@
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
@@ -1471,8 +1585,12 @@
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
@@ -1507,8 +1625,12 @@
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
@@ -1543,8 +1665,12 @@
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -1579,8 +1705,12 @@
       <c r="K27" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
@@ -1612,8 +1742,15 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
@@ -1648,8 +1785,12 @@
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
@@ -1684,8 +1825,12 @@
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
@@ -1720,8 +1865,12 @@
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
@@ -1756,8 +1905,12 @@
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
@@ -1792,8 +1945,12 @@
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
@@ -1825,8 +1982,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
@@ -1861,8 +2022,12 @@
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
@@ -1897,8 +2062,12 @@
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>47</v>
       </c>
@@ -1933,8 +2102,12 @@
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>48</v>
       </c>
@@ -1969,8 +2142,12 @@
       <c r="K38" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>49</v>
       </c>
@@ -2005,8 +2182,12 @@
       <c r="K39" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>50</v>
       </c>
@@ -2041,8 +2222,12 @@
       <c r="K40" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>51</v>
       </c>
@@ -2077,8 +2262,12 @@
       <c r="K41" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>52</v>
       </c>
@@ -2110,8 +2299,15 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>53</v>
       </c>
@@ -2146,8 +2342,12 @@
       <c r="K43" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>54</v>
       </c>
@@ -2179,8 +2379,15 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>55</v>
       </c>
@@ -2215,8 +2422,12 @@
       <c r="K45" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>56</v>
       </c>
@@ -2251,8 +2462,12 @@
       <c r="K46" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>57</v>
       </c>
@@ -2284,8 +2499,15 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="K47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>58</v>
       </c>
@@ -2320,8 +2542,11 @@
       <c r="K48" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L48">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>59</v>
       </c>
@@ -2338,7 +2563,7 @@
         <v>-5</v>
       </c>
       <c r="F49" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>10</v>
@@ -2351,7 +2576,13 @@
       </c>
       <c r="J49" s="1">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>50</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2415,7 +2646,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576 K1">
+  <conditionalFormatting sqref="J1:J1048576 K1:L1">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="60"/>

--- a/github--22本科网工考勤--云计算与微服务.xlsx
+++ b/github--22本科网工考勤--云计算与微服务.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
   <si>
     <t>4-11 5-6节 509</t>
   </si>
@@ -229,13 +229,18 @@
     <t>缺考</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>学期作业加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -320,7 +325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -334,6 +339,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -618,11 +625,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -633,9 +640,10 @@
     <col min="7" max="9" width="9" style="1"/>
     <col min="10" max="10" width="9.25" style="1"/>
     <col min="11" max="11" width="32.5" customWidth="1"/>
+    <col min="13" max="13" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -672,8 +680,11 @@
       <c r="L1" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -709,8 +720,11 @@
         <f>MIN(100, ROUND(J2*1.05, 0))</f>
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -746,11 +760,14 @@
         <v>11</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L49" si="1">MIN(100, ROUND(J3*1.05, 0))</f>
+        <f t="shared" ref="L3:L47" si="1">MIN(100, ROUND(J3*1.05, 0))</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -789,8 +806,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -829,8 +849,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -869,8 +892,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -909,8 +935,11 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -949,8 +978,11 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -989,8 +1021,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1029,8 +1064,11 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1069,8 +1107,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1109,8 +1150,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1149,8 +1193,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1189,8 +1236,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -1229,8 +1279,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1269,8 +1322,11 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -1309,8 +1365,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1349,8 +1408,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -1389,8 +1451,11 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -1429,8 +1494,11 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
@@ -1469,8 +1537,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1509,8 +1580,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
@@ -1549,8 +1623,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
@@ -1589,8 +1666,11 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
@@ -1629,8 +1709,11 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
@@ -1669,8 +1752,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -1709,8 +1795,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
@@ -1749,8 +1838,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
@@ -1789,8 +1881,11 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
@@ -1829,8 +1924,11 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
@@ -1869,8 +1967,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
@@ -1909,8 +2010,11 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
@@ -1949,8 +2053,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
@@ -1986,8 +2093,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
@@ -2026,8 +2136,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
@@ -2066,8 +2179,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M36" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>47</v>
       </c>
@@ -2106,8 +2222,11 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>48</v>
       </c>
@@ -2146,8 +2265,11 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>49</v>
       </c>
@@ -2186,8 +2308,11 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>50</v>
       </c>
@@ -2226,8 +2351,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>51</v>
       </c>
@@ -2266,8 +2394,11 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>52</v>
       </c>
@@ -2306,8 +2437,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>53</v>
       </c>
@@ -2346,8 +2480,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>54</v>
       </c>
@@ -2386,8 +2523,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>55</v>
       </c>
@@ -2426,8 +2566,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>56</v>
       </c>
@@ -2466,8 +2609,11 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>57</v>
       </c>
@@ -2506,8 +2652,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="M47" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>58</v>
       </c>
@@ -2545,8 +2694,11 @@
       <c r="L48">
         <v>61</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>59</v>
       </c>
@@ -2583,12 +2735,15 @@
       </c>
       <c r="L49" s="10" t="s">
         <v>62</v>
+      </c>
+      <c r="M49" s="12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="num" val="-5"/>
         <cfvo type="max"/>
@@ -2596,7 +2751,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="num" val="-5"/>
         <cfvo type="max"/>
@@ -2604,12 +2759,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="num" val="-5"/>
         <cfvo type="max"/>
@@ -2617,7 +2772,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="num" val="-5"/>
         <cfvo type="max"/>
@@ -2627,7 +2782,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="-5"/>
         <cfvo type="num" val="5"/>
@@ -2637,7 +2792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="10"/>
@@ -2646,8 +2801,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576 K1:L1">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="J1:J1048576 K1:M1">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="60"/>
         <cfvo type="num" val="90"/>
@@ -2655,7 +2810,7 @@
         <color theme="9" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="percent" val="60"/>
         <cfvo type="percent" val="90"/>
@@ -2663,7 +2818,7 @@
         <color theme="9" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="percent" val="90"/>
         <cfvo type="percent" val="100"/>
@@ -2673,7 +2828,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:F1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="-5"/>
         <cfvo type="num" val="5"/>
@@ -2683,7 +2838,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:F1048576">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="num" val="-5"/>
         <cfvo type="max"/>
@@ -2691,7 +2846,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="num" val="-5"/>
         <cfvo type="max"/>
@@ -2700,6 +2855,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFC00000"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="25"/>
+        <color rgb="FFC00000"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
